--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail5 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>2.7259772624203e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5430527038164787</v>
+        <v>1.690513055142401e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.876722619860107</v>
+        <v>1.123319290893419e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.690513055142401e-07</v>
+        <v>-0.06791963708734243</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.123319290893419e-06</v>
+        <v>0.3056248019834088</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06791963708734243</v>
+        <v>0.09775751277005465</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3056248019834088</v>
+        <v>1.797199167798847</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09775751277005465</v>
+        <v>2.013570107473294</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.731439700056872</v>
+        <v>3.841119455455163</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.013570107473294</v>
+        <v>1.478146571578727e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.841119455455163</v>
+        <v>479603507.012638</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.478146571578727e-16</v>
+        <v>2.446340047710176e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>479603507.012638</v>
+        <v>34.00025707063399</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.446340047710176e-07</v>
+        <v>0.0001275458559913804</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>34.00025707063399</v>
+        <v>8.613883434850985</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001275458559913804</v>
+        <v>1.240884610976677</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.613883434850985</v>
+        <v>0.009463773416369359</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.240884610976677</v>
+        <v>3.081732459680892</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009463773416369359</v>
+        <v>0.9573781726435275</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.081732459680892</v>
+        <v>1.654023258233754</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9573781726435275</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.654023258233754</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2583723543882494</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>2.401297908168979e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2619817293694028</v>
+        <v>1.231689315471613e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.3762901890599015</v>
+        <v>1.121877884319454e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.231689315471613e-07</v>
+        <v>-0.04540839664087715</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.121877884319454e-06</v>
+        <v>0.249869543539881</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04540839664087715</v>
+        <v>0.06434112602001058</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.249869543539881</v>
+        <v>1.807165620272639</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06434112602001058</v>
+        <v>1.865987968353379</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.744544363837851</v>
+        <v>3.8295564266938</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.865987968353379</v>
+        <v>1.487086330197649e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.8295564266938</v>
+        <v>479026977.2637073</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.487086330197649e-16</v>
+        <v>2.451073499960412e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>479026977.2637073</v>
+        <v>34.12370083533814</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.451073499960412e-07</v>
+        <v>0.0001357004596737152</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>34.12370083533814</v>
+        <v>8.121016993908269</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001357004596737152</v>
+        <v>1.412231962801961</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.121016993908269</v>
+        <v>0.00894956975488562</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.412231962801961</v>
+        <v>3.096118372549173</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00894956975488562</v>
+        <v>0.9570592566431894</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.096118372549173</v>
+        <v>1.631073218718461</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9570592566431894</v>
+        <v>22</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.631073218718461</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2479342557397487</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>2.262673497640013e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5775241911333965</v>
+        <v>9.199294565772178e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.869731794640292</v>
+        <v>1.121055894792865e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.199294565772178e-08</v>
+        <v>-0.0259947393110413</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.121055894792865e-06</v>
+        <v>0.1999517586065308</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0259947393110413</v>
+        <v>0.04056571171313338</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1999517586065308</v>
+        <v>1.813759814907518</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04056571171313338</v>
+        <v>1.741710906779864</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.753266323497694</v>
+        <v>4.234757435478395</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.741710906779864</v>
+        <v>1.216118930929326e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.234757435478395</v>
+        <v>579715084.205135</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.216118930929326e-16</v>
+        <v>2.026209178109077e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>579715084.205135</v>
+        <v>40.87005769549709</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.026209178109077e-07</v>
+        <v>0.0001292625362605111</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>40.87005769549709</v>
+        <v>8.407669368265879</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001292625362605111</v>
+        <v>1.500249835504326</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.407669368265879</v>
+        <v>0.009137427043153745</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.500249835504326</v>
+        <v>3.06547027063941</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009137427043153745</v>
+        <v>0.9571018494050366</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.06547027063941</v>
+        <v>1.658117460077363</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9571018494050366</v>
+        <v>22</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.658117460077363</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2675118163306908</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>2.217186807219767e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.6392266931703917</v>
+        <v>7.222738674509036e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8831845567585757</v>
+        <v>1.120662844955154e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.222738674509036e-08</v>
+        <v>-0.0104723249668151</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.120662844955154e-06</v>
+        <v>0.1560902770406532</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0104723249668151</v>
+        <v>0.02445001622243687</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1560902770406532</v>
+        <v>1.821572559532386</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02445001622243687</v>
+        <v>1.922251441447802</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.764346062798337</v>
+        <v>3.997157990214978</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.922251441447802</v>
+        <v>1.018178638905617e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.997157990214978</v>
+        <v>670442962.3170549</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.018178638905617e-16</v>
+        <v>1.750732738210642e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>670442962.3170549</v>
+        <v>45.7664950577826</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.750732738210642e-07</v>
+        <v>0.0001222103682881052</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45.7664950577826</v>
+        <v>8.010093529414565</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001222103682881052</v>
+        <v>1.498435768649121</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.010093529414565</v>
+        <v>0.007841212564303205</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.498435768649121</v>
+        <v>3.061406681957143</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007841212564303205</v>
+        <v>0.9573412853687238</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.061406681957143</v>
+        <v>1.662228170604755</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9573412853687238</v>
+        <v>35</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.662228170604755</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2740927701120599</v>
       </c>
     </row>
@@ -3873,72 +3837,66 @@
         <v>2.20511910940193e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.6415871966602077</v>
+        <v>7.222738674509036e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8694511754637206</v>
+        <v>1.120507048934574e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.222738674509036e-08</v>
+        <v>-0.004333479626665897</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.120507048934574e-06</v>
+        <v>0.1471478834204957</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.004333479626665897</v>
+        <v>0.02166521336263743</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1471478834204957</v>
+        <v>1.815869380313216</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02166521336263743</v>
+        <v>2.054511998752355</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.76086535966454</v>
+        <v>3.984133766180161</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.054511998752355</v>
+        <v>1.024846418008376e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.984133766180161</v>
+        <v>648195190.667668</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.024846418008376e-16</v>
+        <v>1.803950050912029e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>648195190.667668</v>
+        <v>43.05964017851576</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.803950050912029e-07</v>
+        <v>0.0001225274173522016</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>43.05964017851576</v>
+        <v>8.063355250398301</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001225274173522016</v>
+        <v>1.503816809088733</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.063355250398301</v>
+        <v>0.007966450605152919</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.503816809088733</v>
+        <v>3.042543544631584</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007966450605152919</v>
+        <v>0.9570927088619481</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.042543544631584</v>
+        <v>1.643957428057928</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9570927088619481</v>
+        <v>35</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.643957428057928</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2754674346835522</v>
       </c>
     </row>
@@ -3953,72 +3911,66 @@
         <v>2.201684776313596e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.6395816017074065</v>
+        <v>7.222738674509036e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8651359877159859</v>
+        <v>1.12044991613061e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.222738674509036e-08</v>
+        <v>-0.001196735667470656</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.12044991613061e-06</v>
+        <v>0.1447676406607996</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.001196735667470656</v>
+        <v>0.0209575491131987</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1447676406607996</v>
+        <v>1.812592419459458</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0209575491131987</v>
+        <v>2.086870880836393</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.762557815701367</v>
+        <v>3.876927564756937</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.086870880836393</v>
+        <v>1.082308916659558e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.876927564756937</v>
+        <v>615480482.3835087</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.082308916659558e-16</v>
+        <v>1.892900164675503e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>615480482.3835087</v>
+        <v>40.99961772215943</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.892900164675503e-07</v>
+        <v>0.0001267809204346276</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>40.99961772215943</v>
+        <v>8.134786220744591</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001267809204346276</v>
+        <v>1.506808458655042</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.134786220744591</v>
+        <v>0.008389695316086328</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.506808458655042</v>
+        <v>3.095879575977276</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008389695316086328</v>
+        <v>0.9557937739605702</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.095879575977276</v>
+        <v>1.645279957976566</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9557937739605702</v>
+        <v>35</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.645279957976566</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2676854197333723</v>
       </c>
     </row>
@@ -4395,7 +4347,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.348530066871865</v>
+        <v>1.36152166951899</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.355398589742803</v>
@@ -4484,7 +4436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.354863682625571</v>
+        <v>1.37249006628096</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.389794208850556</v>
@@ -4573,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.372912478278718</v>
+        <v>1.388712275823421</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.257700447807192</v>
@@ -4662,7 +4614,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.40172203906231</v>
+        <v>1.4264135991743</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.2469875967241</v>
@@ -4751,7 +4703,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.420835751222264</v>
+        <v>1.445400232203042</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.279867171248491</v>
@@ -4840,7 +4792,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.45219192129405</v>
+        <v>1.484575573366812</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.478035894720745</v>
@@ -4929,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.483269837306882</v>
+        <v>1.51973638165356</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.508548873390067</v>
@@ -5018,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.514595079395342</v>
+        <v>1.545036028120612</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.429616715120308</v>
@@ -5107,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.506862181038404</v>
+        <v>1.536185874456204</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.740512930786879</v>
@@ -5196,7 +5148,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.525757595439959</v>
+        <v>1.561979808901941</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.538147184181109</v>
@@ -5285,7 +5237,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553453635812073</v>
+        <v>1.58642949439828</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.544187317360385</v>
@@ -5374,7 +5326,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.560108358582852</v>
+        <v>1.590848459733585</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.642738332118548</v>
@@ -5463,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.611508550362338</v>
+        <v>1.63733869322236</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.680297275404464</v>
@@ -5552,7 +5504,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.573261117400537</v>
+        <v>1.598484843350755</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.560423150115332</v>
@@ -5641,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.590458289794383</v>
+        <v>1.612960591780124</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.365248410939162</v>
@@ -5730,7 +5682,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.575269611736048</v>
+        <v>1.598572252783568</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.72183927205166</v>
@@ -5819,7 +5771,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564800435882537</v>
+        <v>1.588713791366352</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.656161273763733</v>
@@ -5908,7 +5860,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58739136996304</v>
+        <v>1.608518960334749</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.571944008472257</v>
@@ -5997,7 +5949,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562175694823783</v>
+        <v>1.583987232462042</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.638812081521477</v>
@@ -6086,7 +6038,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.546038820750133</v>
+        <v>1.57138673713971</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.607787156214366</v>
@@ -6175,7 +6127,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.567527429246281</v>
+        <v>1.589854937444935</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.704892921074442</v>
@@ -6264,7 +6216,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.56632421409381</v>
+        <v>1.587041716401415</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.422862855562278</v>
@@ -6353,7 +6305,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56088003343419</v>
+        <v>1.58292766683793</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.47016363730358</v>
@@ -6442,7 +6394,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.553152417382344</v>
+        <v>1.577044272856727</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.401193420751083</v>
@@ -6531,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553361823666909</v>
+        <v>1.573721490733719</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.656104917124346</v>
@@ -6620,7 +6572,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.530419572297821</v>
+        <v>1.554431351582901</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.508241123049042</v>
@@ -6709,7 +6661,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531911106480765</v>
+        <v>1.551622035637386</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.522801335109268</v>
@@ -6798,7 +6750,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.528347240009132</v>
+        <v>1.544785736811003</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.492589499001682</v>
@@ -6887,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.559198752217255</v>
+        <v>1.574280285809306</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.602268189543922</v>
@@ -6976,7 +6928,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.591615479434926</v>
+        <v>1.600875146953738</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.505765748535826</v>
@@ -7065,7 +7017,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634438413263822</v>
+        <v>1.637231178651327</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.507488342944542</v>
@@ -7154,7 +7106,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.664775491194451</v>
+        <v>1.664110267756981</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.510514190466705</v>
@@ -7243,7 +7195,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672861474822218</v>
+        <v>1.664329270681147</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.388169326916596</v>
@@ -7332,7 +7284,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.661023047140249</v>
+        <v>1.657577150587099</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.441620103242563</v>
@@ -7421,7 +7373,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.680925765567714</v>
+        <v>1.676220653276061</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.464546513218259</v>
@@ -7510,7 +7462,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.68697965300062</v>
+        <v>1.684495769183412</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.375958519505598</v>
@@ -7599,7 +7551,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.690705814172248</v>
+        <v>1.690359322679701</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.409684319337297</v>
@@ -7688,7 +7640,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.718617623995745</v>
+        <v>1.715164577881569</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.573331492276248</v>
@@ -7777,7 +7729,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.749775456957364</v>
+        <v>1.739762994762199</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.401203506416106</v>
@@ -7866,7 +7818,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.757775028793403</v>
+        <v>1.746917614014455</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.320232065108997</v>
@@ -7955,7 +7907,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.789382789292305</v>
+        <v>1.775094926503543</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.365820332453928</v>
@@ -8044,7 +7996,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.788787676281691</v>
+        <v>1.781510823935171</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.475059296934919</v>
@@ -8133,7 +8085,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.74058384364451</v>
+        <v>1.747160068576937</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.444872898688349</v>
@@ -8222,7 +8174,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.69720951432624</v>
+        <v>1.713280351604715</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.436843283467168</v>
@@ -8311,7 +8263,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.645984411074118</v>
+        <v>1.672143730697011</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.494800884795865</v>
@@ -8400,7 +8352,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.640839275300952</v>
+        <v>1.666509360507683</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.578420951581371</v>
@@ -8489,7 +8441,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.604581604606071</v>
+        <v>1.634062298563454</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.507261222241778</v>
@@ -8578,7 +8530,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590887820774113</v>
+        <v>1.624748143884269</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.539223820440103</v>
@@ -8667,7 +8619,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.621487628072678</v>
+        <v>1.656492046185308</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.652930529328804</v>
@@ -8756,7 +8708,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.62939835099671</v>
+        <v>1.663716011528094</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.639168765992838</v>
@@ -8845,7 +8797,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.634229462037856</v>
+        <v>1.667067275031088</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.741396403913828</v>
@@ -9131,7 +9083,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.663562415023032</v>
+        <v>1.66768972960153</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.17153019816889</v>
@@ -9220,7 +9172,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.675239742012085</v>
+        <v>1.686427260773744</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.871113285434495</v>
@@ -9309,7 +9261,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.703109224741947</v>
+        <v>1.714102674869268</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.28566847544276</v>
@@ -9398,7 +9350,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.71571672766396</v>
+        <v>1.726153979054574</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.191068700313349</v>
@@ -9487,7 +9439,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.717847783632933</v>
+        <v>1.729090578598977</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.116459549011443</v>
@@ -9576,7 +9528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.741563973032725</v>
+        <v>1.752225340793521</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.77825991235951</v>
@@ -9665,7 +9617,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.750688301729548</v>
+        <v>1.756239580435049</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.991429941772089</v>
@@ -9754,7 +9706,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.721680422395463</v>
+        <v>1.733619526246287</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.082918443878751</v>
@@ -9843,7 +9795,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700788977142659</v>
+        <v>1.70607720948204</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.088708745446912</v>
@@ -9932,7 +9884,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.698455759529536</v>
+        <v>1.695753937502474</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.313855859535732</v>
@@ -10021,7 +9973,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.685858205541414</v>
+        <v>1.671070156396525</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.210642507361797</v>
@@ -10110,7 +10062,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685621970733302</v>
+        <v>1.671915529015652</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.24415390050564</v>
@@ -10199,7 +10151,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.713692558363726</v>
+        <v>1.692999609574518</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.209965612572382</v>
@@ -10288,7 +10240,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.696619580040886</v>
+        <v>1.681119960980344</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.23402743462524</v>
@@ -10377,7 +10329,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.702678961766713</v>
+        <v>1.685760658845032</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.049632649591464</v>
@@ -10466,7 +10418,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.70070138288511</v>
+        <v>1.681197513296072</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.256139381167225</v>
@@ -10555,7 +10507,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.686462707869012</v>
+        <v>1.668051616659552</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.075021958826572</v>
@@ -10644,7 +10596,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.70013873370063</v>
+        <v>1.67650383638328</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.348163792201367</v>
@@ -10733,7 +10685,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.676488233428386</v>
+        <v>1.657231489775798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.860826502969062</v>
@@ -10822,7 +10774,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663509738881948</v>
+        <v>1.649618291010977</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.141175481426913</v>
@@ -10911,7 +10863,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.677612833339005</v>
+        <v>1.658504890750629</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.191963985278124</v>
@@ -11000,7 +10952,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.689280398351531</v>
+        <v>1.662989576664888</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.030103575653931</v>
@@ -11089,7 +11041,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.71043044415236</v>
+        <v>1.675274502789057</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.552813553353544</v>
@@ -11178,7 +11130,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.725839895123217</v>
+        <v>1.693393661423401</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.686983037794453</v>
@@ -11267,7 +11219,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.722267681380595</v>
+        <v>1.685566219884173</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.894799337207429</v>
@@ -11356,7 +11308,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.730894565985609</v>
+        <v>1.702984942230705</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.934875841371759</v>
@@ -11445,7 +11397,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.723482781978626</v>
+        <v>1.681945765712144</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.105769477523967</v>
@@ -11534,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.709782888369473</v>
+        <v>1.666167238092271</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.754864914957224</v>
@@ -11623,7 +11575,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.728644995627657</v>
+        <v>1.674972254323815</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.755318631416161</v>
@@ -11712,7 +11664,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.73447067902603</v>
+        <v>1.681934639160146</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.952691396957264</v>
@@ -11801,7 +11753,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.725912921028848</v>
+        <v>1.67206531264749</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.056597194164763</v>
@@ -11890,7 +11842,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.724368546825433</v>
+        <v>1.669329698601683</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.883609195465845</v>
@@ -11979,7 +11931,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.713992515652121</v>
+        <v>1.651232029420423</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.008673451796814</v>
@@ -12068,7 +12020,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.725468463049526</v>
+        <v>1.659310285078847</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.07051470196439</v>
@@ -12157,7 +12109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.720405400048443</v>
+        <v>1.653714178280615</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.212712913500412</v>
@@ -12246,7 +12198,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.715387223220379</v>
+        <v>1.650462082560296</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.34438002111528</v>
@@ -12335,7 +12287,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.719946088293561</v>
+        <v>1.659626576385254</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.243637773949305</v>
@@ -12424,7 +12376,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.724671695589599</v>
+        <v>1.667518992253581</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.225515546726332</v>
@@ -12513,7 +12465,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.719875966934776</v>
+        <v>1.663460164810935</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.383714335394026</v>
@@ -12602,7 +12554,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.737354717061364</v>
+        <v>1.687415436077662</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.439125677572312</v>
@@ -12691,7 +12643,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.73738811018696</v>
+        <v>1.691397542327662</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.429687937870511</v>
@@ -12780,7 +12732,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.746652980850999</v>
+        <v>1.710747566878314</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.27795418204946</v>
@@ -12869,7 +12821,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.7474365087612</v>
+        <v>1.719972364751657</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.371827593890827</v>
@@ -12958,7 +12910,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.740099758700219</v>
+        <v>1.717504030021769</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.235670552446991</v>
@@ -13047,7 +12999,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.72301522847737</v>
+        <v>1.700189214689314</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.385151025888058</v>
@@ -13136,7 +13088,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.744035812621624</v>
+        <v>1.714690044539199</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.308643899603425</v>
@@ -13225,7 +13177,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.737956346743839</v>
+        <v>1.708705344699452</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.450996126180053</v>
@@ -13314,7 +13266,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.739778230326595</v>
+        <v>1.709883896836854</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.551703978382359</v>
@@ -13403,7 +13355,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.738093724769189</v>
+        <v>1.715781860769336</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.155399478944154</v>
@@ -13492,7 +13444,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.756590378127567</v>
+        <v>1.727219485160501</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.671139238625587</v>
@@ -13581,7 +13533,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.757275978047934</v>
+        <v>1.724747731203252</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.115249120476859</v>
@@ -13867,7 +13819,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.601996637414736</v>
+        <v>1.596396186303094</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.772123599725887</v>
@@ -13956,7 +13908,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.605145304853606</v>
+        <v>1.596945502396317</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.771299287893019</v>
@@ -14045,7 +13997,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.604101360078354</v>
+        <v>1.598485020925109</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.862641665319242</v>
@@ -14134,7 +14086,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.638401253071888</v>
+        <v>1.628622840092247</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.525855192463645</v>
@@ -14223,7 +14175,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.649273634264707</v>
+        <v>1.644502601584528</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.429340906514536</v>
@@ -14312,7 +14264,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.671595342296224</v>
+        <v>1.663068026893384</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.267903667063131</v>
@@ -14401,7 +14353,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678742905415658</v>
+        <v>1.672587068037795</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.004045860426348</v>
@@ -14490,7 +14442,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.693635185822642</v>
+        <v>1.68727793310102</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.213223550118523</v>
@@ -14579,7 +14531,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.702950884309088</v>
+        <v>1.694999722496881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.424829140407862</v>
@@ -14668,7 +14620,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.700343586701363</v>
+        <v>1.685955221939275</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.260713172122663</v>
@@ -14757,7 +14709,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.695711860437192</v>
+        <v>1.679386610886847</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.896800377094245</v>
@@ -14846,7 +14798,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.71396532762899</v>
+        <v>1.694720311995788</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.971446150240263</v>
@@ -14935,7 +14887,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.718676038175695</v>
+        <v>1.699402373105544</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.971968887825384</v>
@@ -15024,7 +14976,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.711299636886381</v>
+        <v>1.690491069263589</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.783848433322665</v>
@@ -15113,7 +15065,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.714643533829457</v>
+        <v>1.689272069301615</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.770842096739481</v>
@@ -15202,7 +15154,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.715562987088321</v>
+        <v>1.69053840876517</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.974003875964395</v>
@@ -15291,7 +15243,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.708721682166235</v>
+        <v>1.686509172725918</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.629132899981013</v>
@@ -15380,7 +15332,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.718958688563749</v>
+        <v>1.695792505219517</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.942714548867215</v>
@@ -15469,7 +15421,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.706969828344105</v>
+        <v>1.689328504618243</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.655938613396358</v>
@@ -15558,7 +15510,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.699828030228771</v>
+        <v>1.6829988756402</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.30652321310981</v>
@@ -15647,7 +15599,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.670700741279379</v>
+        <v>1.657909397717561</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.75227088111806</v>
@@ -15736,7 +15688,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667947251119755</v>
+        <v>1.660386109030775</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.679917642610927</v>
@@ -15825,7 +15777,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.663173812097788</v>
+        <v>1.651196199323753</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.774425456675209</v>
@@ -15914,7 +15866,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.654726755003279</v>
+        <v>1.645726642412984</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.909243849327157</v>
@@ -16003,7 +15955,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.66413305495074</v>
+        <v>1.654463960186359</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.921197253805482</v>
@@ -16092,7 +16044,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.66000363344937</v>
+        <v>1.651732347988661</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.792658784526253</v>
@@ -16181,7 +16133,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.662894471597796</v>
+        <v>1.649163502644443</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.702290665304085</v>
@@ -16270,7 +16222,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.663987339848115</v>
+        <v>1.644372261759108</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.718891952223088</v>
@@ -16359,7 +16311,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.673577003320597</v>
+        <v>1.65140937145262</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.743638737379082</v>
@@ -16448,7 +16400,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.674940705009289</v>
+        <v>1.649618587656397</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.775577049082907</v>
@@ -16537,7 +16489,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.67283974860258</v>
+        <v>1.64525224612787</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.733540114407485</v>
@@ -16626,7 +16578,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.681315935208117</v>
+        <v>1.652937949021504</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.837288752089512</v>
@@ -16715,7 +16667,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.679298762022712</v>
+        <v>1.649383307586554</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.863429338611351</v>
@@ -16804,7 +16756,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.679736547108931</v>
+        <v>1.644624163030939</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.845066763819894</v>
@@ -16893,7 +16845,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.687472989004309</v>
+        <v>1.650897264046754</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.641386783366626</v>
@@ -16982,7 +16934,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.724562328700738</v>
+        <v>1.68467253246028</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.378570010589249</v>
@@ -17071,7 +17023,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.730192520386538</v>
+        <v>1.686595635768297</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.123201301798075</v>
@@ -17160,7 +17112,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.731600613919965</v>
+        <v>1.686315784530108</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.775896472159649</v>
@@ -17249,7 +17201,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.743529132929233</v>
+        <v>1.695908919400443</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.128382572925422</v>
@@ -17338,7 +17290,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.734890990625751</v>
+        <v>1.686563650043219</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.737375493773406</v>
@@ -17427,7 +17379,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.740900564449757</v>
+        <v>1.692444897173958</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.445151014475608</v>
@@ -17516,7 +17468,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.740409839272893</v>
+        <v>1.694968919588369</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.548049985680556</v>
@@ -17605,7 +17557,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.737593484500081</v>
+        <v>1.699200917306974</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.718890840058573</v>
@@ -17694,7 +17646,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.728357952121895</v>
+        <v>1.694140009518269</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.265183196945906</v>
@@ -17783,7 +17735,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.709418740619598</v>
+        <v>1.682161466097782</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.443661083127004</v>
@@ -17872,7 +17824,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.719401377590368</v>
+        <v>1.689644451485413</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.47270674966149</v>
@@ -17961,7 +17913,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.706393131628236</v>
+        <v>1.67716784705693</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.649997835473387</v>
@@ -18050,7 +18002,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.711292618743066</v>
+        <v>1.681752216186376</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.49989036652627</v>
@@ -18139,7 +18091,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.722325635745664</v>
+        <v>1.691858579831065</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.495720310516685</v>
@@ -18228,7 +18180,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.722932530355931</v>
+        <v>1.696365306236966</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.37782695247557</v>
@@ -18317,7 +18269,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.728406432587277</v>
+        <v>1.698654264609232</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.652866080127048</v>
@@ -18603,7 +18555,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.567050624235118</v>
+        <v>1.57729719373649</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.564711027716478</v>
@@ -18692,7 +18644,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.570540686394239</v>
+        <v>1.579839199437853</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.407476500916829</v>
@@ -18781,7 +18733,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.569475189914699</v>
+        <v>1.575701005659287</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.448204697618058</v>
@@ -18870,7 +18822,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.604840469890062</v>
+        <v>1.610534000352648</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.371814966080521</v>
@@ -18959,7 +18911,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.615826270866934</v>
+        <v>1.619143561495187</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.925691745523721</v>
@@ -19048,7 +19000,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.63341303474707</v>
+        <v>1.633432189693767</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.043178248657924</v>
@@ -19137,7 +19089,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619878948793523</v>
+        <v>1.617682168796041</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.02009154244936</v>
@@ -19226,7 +19178,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.599901812650775</v>
+        <v>1.599735055042206</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.66685482282946</v>
@@ -19315,7 +19267,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.594409228644689</v>
+        <v>1.590608267544939</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.008458769729901</v>
@@ -19404,7 +19356,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.606277090031712</v>
+        <v>1.599041976926663</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.942997338814108</v>
@@ -19493,7 +19445,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607570429030961</v>
+        <v>1.594180361721047</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.906709465561746</v>
@@ -19582,7 +19534,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60369565225325</v>
+        <v>1.593672628131263</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.977426265632984</v>
@@ -19671,7 +19623,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620212496869342</v>
+        <v>1.607381216996629</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.849079791978995</v>
@@ -19760,7 +19712,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612677678260869</v>
+        <v>1.599370128223383</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.089273373870634</v>
@@ -19849,7 +19801,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.624652936712214</v>
+        <v>1.608843747161302</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.95739114564963</v>
@@ -19938,7 +19890,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.628189248988076</v>
+        <v>1.611877215843618</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.081513406514943</v>
@@ -20027,7 +19979,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.606758924511025</v>
+        <v>1.595480806334592</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.079278079122422</v>
@@ -20116,7 +20068,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.627056642085836</v>
+        <v>1.613790400971313</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.887654540503089</v>
@@ -20205,7 +20157,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.615525514823667</v>
+        <v>1.600886621139707</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.955115589407002</v>
@@ -20294,7 +20246,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613123891029513</v>
+        <v>1.602367134438645</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.077970968916279</v>
@@ -20383,7 +20335,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.61215890247931</v>
+        <v>1.596122166702834</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.775161657350314</v>
@@ -20472,7 +20424,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631656177178454</v>
+        <v>1.613520225158947</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.696429293562775</v>
@@ -20561,7 +20513,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.651624763309388</v>
+        <v>1.630149609226801</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.007541334207636</v>
@@ -20650,7 +20602,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663962628098403</v>
+        <v>1.641943419974932</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.958981588165075</v>
@@ -20739,7 +20691,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.667356799331311</v>
+        <v>1.643224996927726</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.126748974428924</v>
@@ -20828,7 +20780,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.666641657082103</v>
+        <v>1.642963063591703</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.305387043915188</v>
@@ -20917,7 +20869,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.672215537227501</v>
+        <v>1.644293320970527</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.030345616604816</v>
@@ -21006,7 +20958,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.663622122951889</v>
+        <v>1.630770512241261</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.132719980847436</v>
@@ -21095,7 +21047,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.666010549156312</v>
+        <v>1.631770407172668</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.096406322188038</v>
@@ -21184,7 +21136,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.658826764219119</v>
+        <v>1.628591445327148</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.161342758628334</v>
@@ -21273,7 +21225,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.651117460864809</v>
+        <v>1.62813057173238</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.816788563637322</v>
@@ -21362,7 +21314,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.671719987077495</v>
+        <v>1.643876659415451</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.60411857961103</v>
@@ -21451,7 +21403,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.668297716986614</v>
+        <v>1.637423586440361</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.005966927614343</v>
@@ -21540,7 +21492,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.66529770296745</v>
+        <v>1.640559103488866</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.484621451977879</v>
@@ -21629,7 +21581,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.672419569697211</v>
+        <v>1.645400993955962</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.187845854264512</v>
@@ -21718,7 +21670,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.671319418741993</v>
+        <v>1.648331697031578</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.55089857550418</v>
@@ -21807,7 +21759,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.669549169491382</v>
+        <v>1.645308197130167</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.643072843253503</v>
@@ -21896,7 +21848,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.673772462842356</v>
+        <v>1.647568074171883</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.665915787640349</v>
@@ -21985,7 +21937,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.67278681369732</v>
+        <v>1.646057397929394</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.398817301959635</v>
@@ -22074,7 +22026,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.672705919415735</v>
+        <v>1.64306077648233</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.596898328029072</v>
@@ -22163,7 +22115,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.674873258081558</v>
+        <v>1.649105996493251</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.280300359936897</v>
@@ -22252,7 +22204,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660189966217797</v>
+        <v>1.635853995075454</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.539419836204077</v>
@@ -22341,7 +22293,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.662842563776425</v>
+        <v>1.643392851714701</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.259758757531081</v>
@@ -22430,7 +22382,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667907854997533</v>
+        <v>1.650432913215191</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.013636627776511</v>
@@ -22519,7 +22471,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.667661128913976</v>
+        <v>1.64704457587561</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.422088435240122</v>
@@ -22608,7 +22560,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.682168676272542</v>
+        <v>1.656277823773045</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.201967304168341</v>
@@ -22697,7 +22649,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.650199602818082</v>
+        <v>1.629571442263366</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.125316805609669</v>
@@ -22786,7 +22738,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65518914071493</v>
+        <v>1.635148814826556</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.11436388790776</v>
@@ -22875,7 +22827,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.617884262045709</v>
+        <v>1.601919442330774</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.448228448278174</v>
@@ -22964,7 +22916,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.624388781919144</v>
+        <v>1.608990373466393</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.603384619725416</v>
@@ -23053,7 +23005,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.626022109349625</v>
+        <v>1.610972391755994</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.606600188022621</v>
@@ -23339,7 +23291,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.6592644699883</v>
+        <v>1.671137098054115</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.035886659363409</v>
@@ -23428,7 +23380,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.658892522327083</v>
+        <v>1.670423868000268</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.697214474540091</v>
@@ -23517,7 +23469,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.687547482580351</v>
+        <v>1.69366241005566</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.987620387696783</v>
@@ -23606,7 +23558,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.681324029037119</v>
+        <v>1.687788343354686</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.764611411032798</v>
@@ -23695,7 +23647,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.675460329305352</v>
+        <v>1.676209164651149</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.703066789264395</v>
@@ -23784,7 +23736,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.682098299866244</v>
+        <v>1.679692305028897</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.549887771733224</v>
@@ -23873,7 +23825,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.690788781271262</v>
+        <v>1.680805430394903</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.878844431225736</v>
@@ -23962,7 +23914,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661174390744908</v>
+        <v>1.651183936117297</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.704556959641162</v>
@@ -24051,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.645766543716461</v>
+        <v>1.63005645197832</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.929442851187398</v>
@@ -24140,7 +24092,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.65185437446653</v>
+        <v>1.629635763739704</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.834845733589728</v>
@@ -24229,7 +24181,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.651307002658266</v>
+        <v>1.625301231403628</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.714597966540771</v>
@@ -24318,7 +24270,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.65608627602573</v>
+        <v>1.631336381715446</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.623619229150149</v>
@@ -24407,7 +24359,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.666196108745408</v>
+        <v>1.643032187090657</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.930686466183604</v>
@@ -24496,7 +24448,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.649031283106418</v>
+        <v>1.622500110334526</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.805129998588162</v>
@@ -24585,7 +24537,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.643703973646872</v>
+        <v>1.618061052636905</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.843822619579132</v>
@@ -24674,7 +24626,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.642658164598669</v>
+        <v>1.618239072659622</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.863899651609999</v>
@@ -24763,7 +24715,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.630569424829382</v>
+        <v>1.607437262731569</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.89480223353008</v>
@@ -24852,7 +24804,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.632947306349557</v>
+        <v>1.607494127415652</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.86622387857717</v>
@@ -24941,7 +24893,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.616236304722515</v>
+        <v>1.591849207630371</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.741936659713172</v>
@@ -25030,7 +24982,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.610784464571078</v>
+        <v>1.592691177497008</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.651762938264122</v>
@@ -25119,7 +25071,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.629318000937135</v>
+        <v>1.606829575896666</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.835224968385834</v>
@@ -25208,7 +25160,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.634235415069996</v>
+        <v>1.610958990612977</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.989116108112428</v>
@@ -25297,7 +25249,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.651814760506477</v>
+        <v>1.626907362588099</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.695553056520843</v>
@@ -25386,7 +25338,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658851938890848</v>
+        <v>1.63104366205263</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.990372246268842</v>
@@ -25475,7 +25427,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.659544617822452</v>
+        <v>1.628849882849833</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.238140110212355</v>
@@ -25564,7 +25516,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.664237381869503</v>
+        <v>1.64007617199411</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.051019612029745</v>
@@ -25653,7 +25605,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.661094527097685</v>
+        <v>1.63539688781927</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.299082975619262</v>
@@ -25742,7 +25694,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.657245453823394</v>
+        <v>1.618431114749564</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.664703308560409</v>
@@ -25831,7 +25783,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.670659228227739</v>
+        <v>1.637208406157205</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.1321753204887</v>
@@ -25920,7 +25872,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.669352405254874</v>
+        <v>1.635824978894447</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.16607099126342</v>
@@ -26009,7 +25961,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.666735143221206</v>
+        <v>1.633812392499172</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.88459734671202</v>
@@ -26098,7 +26050,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.668636123505274</v>
+        <v>1.634211135778192</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.206153795055746</v>
@@ -26187,7 +26139,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.664971472751505</v>
+        <v>1.634449136489799</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.303128117638873</v>
@@ -26276,7 +26228,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.683403345158561</v>
+        <v>1.648210528787707</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.271380784435166</v>
@@ -26365,7 +26317,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.673249633830181</v>
+        <v>1.637238469908421</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.234680038607377</v>
@@ -26454,7 +26406,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667941471482323</v>
+        <v>1.632389884912363</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.078963841022384</v>
@@ -26543,7 +26495,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.675842823062874</v>
+        <v>1.636809224577005</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.16059857217194</v>
@@ -26632,7 +26584,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.676671186865397</v>
+        <v>1.640355384703845</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.247871643985702</v>
@@ -26721,7 +26673,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.682658655852537</v>
+        <v>1.64839917823063</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.306349114413198</v>
@@ -26810,7 +26762,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.679893481578318</v>
+        <v>1.646978904130793</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.2224179697775</v>
@@ -26899,7 +26851,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.686026796430967</v>
+        <v>1.651894277172042</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.174623704775073</v>
@@ -26988,7 +26940,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.697043661107385</v>
+        <v>1.660244193083204</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.308525264213416</v>
@@ -27077,7 +27029,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.714476683905018</v>
+        <v>1.686306508215913</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.332589730000831</v>
@@ -27166,7 +27118,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.707055013009957</v>
+        <v>1.67476434358496</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.185163836336996</v>
@@ -27255,7 +27207,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.696421784242924</v>
+        <v>1.666210852887904</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.116328146474625</v>
@@ -27344,7 +27296,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.709527160038639</v>
+        <v>1.672832356479346</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.28522572365867</v>
@@ -27433,7 +27385,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.701223541682789</v>
+        <v>1.665756642207394</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.180656792329371</v>
@@ -27522,7 +27474,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.695555444854898</v>
+        <v>1.65984143748323</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.11250142173854</v>
@@ -27611,7 +27563,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.694660290043644</v>
+        <v>1.662339511705643</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.310425415096317</v>
@@ -27700,7 +27652,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.716884567706849</v>
+        <v>1.68449261467296</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.433469615766052</v>
@@ -27789,7 +27741,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.719950511038584</v>
+        <v>1.690081232563323</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.381899125363362</v>
@@ -28075,7 +28027,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352238667539901</v>
+        <v>1.347996921925853</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.347941838595525</v>
@@ -28164,7 +28116,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.363568321893753</v>
+        <v>1.365279585045104</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.329140608451428</v>
@@ -28253,7 +28205,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.375835071903303</v>
+        <v>1.377259313703168</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.236794832271035</v>
@@ -28342,7 +28294,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.404130889583506</v>
+        <v>1.415156513073921</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.211558558405948</v>
@@ -28431,7 +28383,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.421110084646525</v>
+        <v>1.432001130555561</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.167776261029827</v>
@@ -28520,7 +28472,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460150017712214</v>
+        <v>1.477741635287427</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.47893413052817</v>
@@ -28609,7 +28561,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.491950359896085</v>
+        <v>1.516025046623909</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.612391422337593</v>
@@ -28698,7 +28650,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.507301853346493</v>
+        <v>1.531387900107358</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.54519617534656</v>
@@ -28787,7 +28739,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.490613858370185</v>
+        <v>1.515477527401385</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.486664362638547</v>
@@ -28876,7 +28828,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.504803507199612</v>
+        <v>1.534491462431502</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.35394653982021</v>
@@ -28965,7 +28917,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.527904858486443</v>
+        <v>1.555153035429817</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.477418789741653</v>
@@ -29054,7 +29006,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.530597255384951</v>
+        <v>1.558905545509104</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.534875586319356</v>
@@ -29143,7 +29095,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.581734507475203</v>
+        <v>1.606916536802039</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.609873874135657</v>
@@ -29232,7 +29184,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.556026372485131</v>
+        <v>1.585391856093868</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.512705152213596</v>
@@ -29321,7 +29273,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580560305902732</v>
+        <v>1.605301776728257</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.272644056901711</v>
@@ -29410,7 +29362,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.575304951072708</v>
+        <v>1.598042670249159</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.775731683390319</v>
@@ -29499,7 +29451,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.551196355866787</v>
+        <v>1.576239927380743</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.580748559307274</v>
@@ -29588,7 +29540,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581440883030208</v>
+        <v>1.602685851915518</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.488053881129453</v>
@@ -29677,7 +29629,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.549589841440296</v>
+        <v>1.573043693334405</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.495285649290019</v>
@@ -29766,7 +29718,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.539504313276812</v>
+        <v>1.567911534703054</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.601992773389712</v>
@@ -29855,7 +29807,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.559604569830543</v>
+        <v>1.584779392193518</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.637978616885867</v>
@@ -29944,7 +29896,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556114032307139</v>
+        <v>1.579122952598739</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.461683944078982</v>
@@ -30033,7 +29985,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.539269975246816</v>
+        <v>1.564352579648558</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.526339036326182</v>
@@ -30122,7 +30074,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.534840567535616</v>
+        <v>1.558718262724663</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.354747211845052</v>
@@ -30211,7 +30163,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.531739344193874</v>
+        <v>1.555346956359543</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.568918385715997</v>
@@ -30300,7 +30252,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.526181718790479</v>
+        <v>1.552084683340481</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.641048400375086</v>
@@ -30389,7 +30341,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.518504252443567</v>
+        <v>1.543848456748911</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.503971404789021</v>
@@ -30478,7 +30430,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.50947329357056</v>
+        <v>1.529609090687659</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.508393798770894</v>
@@ -30567,7 +30519,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.535627788741456</v>
+        <v>1.555644447657826</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.471972709078126</v>
@@ -30656,7 +30608,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.555915589377822</v>
+        <v>1.573122581393931</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.468371488632736</v>
@@ -30745,7 +30697,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.572118352682948</v>
+        <v>1.589664067000043</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.361234127385413</v>
@@ -30834,7 +30786,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592223208244833</v>
+        <v>1.609189271776968</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.541922189058165</v>
@@ -30923,7 +30875,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.593644948187463</v>
+        <v>1.606156065550951</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.260179352832877</v>
@@ -31012,7 +30964,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.580474399055858</v>
+        <v>1.599635578060995</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.372322480663276</v>
@@ -31101,7 +31053,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584492793457865</v>
+        <v>1.602933702410604</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.367639111503165</v>
@@ -31190,7 +31142,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.577043541891761</v>
+        <v>1.595547695345959</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.382949759404843</v>
@@ -31279,7 +31231,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.578953615968026</v>
+        <v>1.601348784943911</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.432089348534786</v>
@@ -31368,7 +31320,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.623472131670312</v>
+        <v>1.641237293231038</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.502717981592207</v>
@@ -31457,7 +31409,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.647586935299929</v>
+        <v>1.663568603198992</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.467314598742979</v>
@@ -31546,7 +31498,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.640870676775669</v>
+        <v>1.655128521600691</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.457295007036211</v>
@@ -31635,7 +31587,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.652264049483124</v>
+        <v>1.666176996591936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.489390806962606</v>
@@ -31724,7 +31676,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.655981626007241</v>
+        <v>1.671476101854012</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.439961045726553</v>
@@ -31813,7 +31765,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.634164959094169</v>
+        <v>1.657582070080827</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.619458066803104</v>
@@ -31902,7 +31854,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.606992156509852</v>
+        <v>1.629861235365987</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.434237881113104</v>
@@ -31991,7 +31943,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.571437326417723</v>
+        <v>1.598665140836863</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.542617045315707</v>
@@ -32080,7 +32032,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581687649910265</v>
+        <v>1.60795926588767</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.454053803706347</v>
@@ -32169,7 +32121,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.56318334033683</v>
+        <v>1.588233099697958</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.429430870653393</v>
@@ -32258,7 +32210,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.553273852348576</v>
+        <v>1.582260414643377</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.61981717375745</v>
@@ -32347,7 +32299,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.588954368019241</v>
+        <v>1.619600965177961</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.674250553258561</v>
@@ -32436,7 +32388,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.605651087341772</v>
+        <v>1.637332508516277</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.697946485176351</v>
@@ -32525,7 +32477,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.610544255102091</v>
+        <v>1.64440506291704</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.626818413972233</v>
